--- a/08_ProtectMode/20 页目录表基址.xlsx
+++ b/08_ProtectMode/20 页目录表基址.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_ProtectMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339F2E04-34D6-4F7F-BC94-E823C87F8C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889566D3-6AD4-42D6-B522-C7596F8EADCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,25 +889,6 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1334,7 +1315,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
